--- a/Materials/Contribution/Result/test2.xlsx
+++ b/Materials/Contribution/Result/test2.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBLS_Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive - Hanoi University of Science and Technology\Desktop\ĐATN_IT4995\CBLS_SoftRectanglePacking\Materials\Contribution\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BCE802-516B-42DB-B851-917168180A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFD7B7-9673-4C53-9855-4AF593816FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,7 +40,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,46 +351,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="B2">
-        <v>1.1180554389953614</v>
+        <v>2.7461225986480713</v>
       </c>
       <c r="C2">
-        <v>1.1180555820465088</v>
+        <v>2.7461225986480713</v>
       </c>
       <c r="D2">
-        <v>1.1180555820465088</v>
+        <v>2.7461225986480713</v>
+      </c>
+      <c r="G2">
+        <v>0.09</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>2.75</v>
       </c>
       <c r="I2">
-        <v>1.1200000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="J2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K2">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.75</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2717</v>
       </c>
@@ -404,1949 +406,1799 @@
       <c r="D3">
         <v>2.21875</v>
       </c>
+      <c r="G3">
+        <v>0.27</v>
+      </c>
       <c r="H3">
-        <v>0.27</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I3">
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J3">
-        <v>2.21</v>
-      </c>
-      <c r="K3">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.7700000000000009E-2</v>
       </c>
       <c r="B4">
-        <v>1.125</v>
+        <v>6.226806640625</v>
       </c>
       <c r="C4">
-        <v>1.125</v>
+        <v>6.8657989501953125</v>
       </c>
       <c r="D4">
-        <v>1.125</v>
+        <v>5.5956792831420898</v>
+      </c>
+      <c r="G4">
+        <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>6.22</v>
       </c>
       <c r="I4">
-        <v>1.1200000000000001</v>
+        <v>6.86</v>
       </c>
       <c r="J4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K4">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.6</v>
+      </c>
+      <c r="M4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.78610000000000002</v>
       </c>
       <c r="B5">
-        <v>1.1848831176757813</v>
+        <v>4.1652893066406254</v>
       </c>
       <c r="C5">
-        <v>1.4234695434570313</v>
+        <v>4.1652889251708984</v>
       </c>
       <c r="D5">
-        <v>1.1018830537796021</v>
+        <v>4.1652889251708984</v>
+      </c>
+      <c r="G5">
+        <v>0.78</v>
       </c>
       <c r="H5">
-        <v>0.78</v>
+        <v>4.17</v>
       </c>
       <c r="I5">
-        <v>1.18</v>
+        <v>4.17</v>
       </c>
       <c r="J5">
-        <v>1.42</v>
-      </c>
-      <c r="K5">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.17</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.74960000000000004</v>
       </c>
       <c r="B6">
-        <v>1.0303307533264161</v>
+        <v>2.6785935115814201</v>
       </c>
       <c r="C6">
-        <v>1.0430693626403809</v>
+        <v>2.6785935115814201</v>
       </c>
       <c r="D6">
-        <v>1.0145864486694336</v>
+        <v>2.6785935115814201</v>
+      </c>
+      <c r="G6">
+        <v>0.74</v>
       </c>
       <c r="H6">
-        <v>0.74</v>
+        <v>2.68</v>
       </c>
       <c r="I6">
-        <v>1.03</v>
+        <v>2.68</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
-      </c>
-      <c r="K6">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.68</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.53210000000000002</v>
       </c>
       <c r="B7">
-        <v>1.2788486480712891</v>
+        <v>4.4943996429443356</v>
       </c>
       <c r="C7">
-        <v>1.601040244102478</v>
+        <v>4.4943995475769043</v>
       </c>
       <c r="D7">
-        <v>1.1996402740478516</v>
+        <v>4.4943995475769043</v>
+      </c>
+      <c r="G7">
+        <v>0.53</v>
       </c>
       <c r="H7">
-        <v>0.53</v>
+        <v>4.49</v>
       </c>
       <c r="I7">
-        <v>1.27</v>
+        <v>4.49</v>
       </c>
       <c r="J7">
-        <v>1.6</v>
-      </c>
-      <c r="K7">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.49</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.82830000000000004</v>
       </c>
       <c r="B8">
-        <v>1.2152777671813966</v>
+        <v>9.8637187194824207</v>
       </c>
       <c r="C8">
-        <v>1.2152777910232544</v>
+        <v>9.896265983581543</v>
       </c>
       <c r="D8">
-        <v>1.2152777910232544</v>
+        <v>9.8361755847930894</v>
+      </c>
+      <c r="G8">
+        <v>0.82</v>
       </c>
       <c r="H8">
-        <v>0.82</v>
+        <v>9.86</v>
       </c>
       <c r="I8">
-        <v>1.21</v>
+        <v>9.89</v>
       </c>
       <c r="J8">
-        <v>1.21</v>
-      </c>
-      <c r="K8">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.83</v>
+      </c>
+      <c r="M8">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.91770000000000007</v>
       </c>
       <c r="B9">
-        <v>1.4382020950317382</v>
+        <v>6.1786010742187498</v>
       </c>
       <c r="C9">
-        <v>1.4382022619247437</v>
+        <v>6.3377189636230469</v>
       </c>
       <c r="D9">
-        <v>1.4382022619247437</v>
+        <v>6.087125301361084</v>
+      </c>
+      <c r="G9">
+        <v>0.91</v>
       </c>
       <c r="H9">
-        <v>0.91</v>
+        <v>6.17</v>
       </c>
       <c r="I9">
-        <v>1.43</v>
+        <v>6.33</v>
       </c>
       <c r="J9">
-        <v>1.43</v>
-      </c>
-      <c r="K9">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.09</v>
+      </c>
+      <c r="M9">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.3811</v>
       </c>
       <c r="B10">
-        <v>1.0959033966064453</v>
+        <v>2.9931261062622072</v>
       </c>
       <c r="C10">
-        <v>1.0959033966064453</v>
+        <v>3.1689813137054443</v>
       </c>
       <c r="D10">
-        <v>1.0959033966064453</v>
+        <v>2.7286522388458252</v>
+      </c>
+      <c r="G10">
+        <v>1.38</v>
       </c>
       <c r="H10">
-        <v>1.38</v>
+        <v>2.99</v>
       </c>
       <c r="I10">
-        <v>1.0900000000000001</v>
+        <v>3.16</v>
       </c>
       <c r="J10">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K10">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.73</v>
+      </c>
+      <c r="M10">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.17</v>
       </c>
       <c r="B11">
-        <v>1.1543684959411622</v>
+        <v>2.1510560989379881</v>
       </c>
       <c r="C11">
-        <v>1.1543686389923096</v>
+        <v>2.4305553436279297</v>
       </c>
       <c r="D11">
-        <v>1.1543686389923096</v>
+        <v>1.9396551847457886</v>
+      </c>
+      <c r="G11">
+        <v>5.17</v>
       </c>
       <c r="H11">
-        <v>5.17</v>
+        <v>2.15</v>
       </c>
       <c r="I11">
-        <v>1.1499999999999999</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J11">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K11">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.94</v>
+      </c>
+      <c r="M11">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.3905000000000003</v>
       </c>
       <c r="B12">
-        <v>1.2962064743041992</v>
+        <v>8.0850467681884766</v>
       </c>
       <c r="C12">
-        <v>1.3363964557647705</v>
+        <v>8.0850467681884695</v>
       </c>
       <c r="D12">
-        <v>1.2595769166946411</v>
+        <v>8.0850467681884766</v>
+      </c>
+      <c r="G12">
+        <v>2.39</v>
       </c>
       <c r="H12">
-        <v>2.39</v>
+        <v>8.08</v>
       </c>
       <c r="I12">
-        <v>1.29</v>
+        <v>8.09</v>
       </c>
       <c r="J12">
-        <v>1.33</v>
-      </c>
-      <c r="K12">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.08</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.6683000000000003</v>
       </c>
       <c r="B13">
-        <v>1.0109171867370605</v>
+        <v>2.8452754974365235</v>
       </c>
       <c r="C13">
-        <v>1.0149208307266235</v>
+        <v>3.1944599151611328</v>
       </c>
       <c r="D13">
-        <v>1.0079832077026367</v>
+        <v>2.4515304565429688</v>
+      </c>
+      <c r="G13">
+        <v>3.66</v>
       </c>
       <c r="H13">
-        <v>3.66</v>
+        <v>2.84</v>
       </c>
       <c r="I13">
-        <v>1.01</v>
+        <v>3.19</v>
       </c>
       <c r="J13">
-        <v>1.01</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.3980000000000006</v>
       </c>
       <c r="B14">
-        <v>1.0075697898864746</v>
+        <v>6.4739894866943297</v>
       </c>
       <c r="C14">
-        <v>1.0710382461547852</v>
+        <v>7.7428836822509766</v>
       </c>
       <c r="D14">
-        <v>1.0005176067352295</v>
+        <v>6.1885564804077102</v>
+      </c>
+      <c r="G14">
+        <v>4.3899999999999997</v>
       </c>
       <c r="H14">
-        <v>4.3899999999999997</v>
+        <v>6.47</v>
       </c>
       <c r="I14">
-        <v>1.01</v>
+        <v>7.74</v>
       </c>
       <c r="J14">
-        <v>1.07</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.18</v>
+      </c>
+      <c r="M14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6.7286000000000001</v>
       </c>
       <c r="B15">
-        <v>1.0235920906066895</v>
+        <v>4.2724853515624996</v>
       </c>
       <c r="C15">
-        <v>1.0269875526428223</v>
+        <v>4.8488783836364746</v>
       </c>
       <c r="D15">
-        <v>1.0216343402862549</v>
+        <v>3.0522003746032702</v>
+      </c>
+      <c r="G15">
+        <v>6.72</v>
       </c>
       <c r="H15">
-        <v>6.72</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="I15">
-        <v>1.02</v>
+        <v>4.84</v>
       </c>
       <c r="J15">
-        <v>1.03</v>
-      </c>
-      <c r="K15">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.05</v>
+      </c>
+      <c r="M15">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.3612000000000002</v>
       </c>
       <c r="B16">
-        <v>1.0001704216003418</v>
+        <v>2.3978788375854494</v>
       </c>
       <c r="C16">
-        <v>1.0001703500747681</v>
+        <v>10.968857765197754</v>
       </c>
       <c r="D16">
-        <v>1.0001703500747681</v>
+        <v>9.4455476999282801</v>
+      </c>
+      <c r="G16">
+        <v>4.3600000000000003</v>
       </c>
       <c r="H16">
-        <v>4.3600000000000003</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>10.96</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="M16">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10.7849</v>
       </c>
       <c r="B17">
-        <v>1.4245226860046387</v>
+        <v>7.4596061706542969</v>
       </c>
       <c r="C17">
-        <v>1.459376335144043</v>
+        <v>8.5745487213134695</v>
       </c>
       <c r="D17">
-        <v>1.4083445072174072</v>
+        <v>5.0835931968688897</v>
+      </c>
+      <c r="G17">
+        <v>10.78</v>
       </c>
       <c r="H17">
-        <v>10.78</v>
+        <v>7.45</v>
       </c>
       <c r="I17">
-        <v>1.42</v>
+        <v>8.57</v>
       </c>
       <c r="J17">
-        <v>1.45</v>
-      </c>
-      <c r="K17">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.08</v>
+      </c>
+      <c r="M17">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21.550599999999999</v>
       </c>
       <c r="B18">
-        <v>1.2222222328186034</v>
+        <v>2.1551963806152346</v>
       </c>
       <c r="C18">
-        <v>1.2222222089767456</v>
+        <v>2.3057849407196045</v>
       </c>
       <c r="D18">
-        <v>1.2222222089767456</v>
+        <v>1.73874988079071</v>
+      </c>
+      <c r="G18">
+        <v>21.55</v>
       </c>
       <c r="H18">
-        <v>21.55</v>
+        <v>2.15</v>
       </c>
       <c r="I18">
-        <v>1.22</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J18">
-        <v>1.22</v>
-      </c>
-      <c r="K18">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.73</v>
+      </c>
+      <c r="M18">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.1226000000000003</v>
       </c>
       <c r="B19">
-        <v>1.5954300880432128</v>
+        <v>6.6425209045410103</v>
       </c>
       <c r="C19">
-        <v>1.8947368860244751</v>
+        <v>7.809699535369873</v>
       </c>
       <c r="D19">
-        <v>1.0001488924026489</v>
+        <v>5.2680248022079397</v>
+      </c>
+      <c r="G19">
+        <v>7.12</v>
       </c>
       <c r="H19">
-        <v>7.12</v>
+        <v>6.64</v>
       </c>
       <c r="I19">
-        <v>1.59</v>
+        <v>7.8</v>
       </c>
       <c r="J19">
-        <v>1.89</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.26</v>
+      </c>
+      <c r="M19">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21.565799999999999</v>
       </c>
       <c r="B20">
-        <v>1.2339285850524901</v>
+        <v>5.6243988037109398</v>
       </c>
       <c r="C20">
-        <v>1.4883463382720947</v>
+        <v>5.8499488830566397</v>
       </c>
       <c r="D20">
-        <v>1.0000084638595581</v>
+        <v>5.4210228347778298</v>
+      </c>
+      <c r="G20">
+        <v>21.56</v>
       </c>
       <c r="H20">
-        <v>21.56</v>
+        <v>5.62</v>
       </c>
       <c r="I20">
-        <v>1.23</v>
+        <v>5.84</v>
       </c>
       <c r="J20">
-        <v>1.48</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.42</v>
+      </c>
+      <c r="M20">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30.905700000000003</v>
       </c>
       <c r="B21">
-        <v>1.0137944221496582</v>
+        <v>2.6213151931762697</v>
       </c>
       <c r="C21">
-        <v>1.0355068445205688</v>
+        <v>2.6213152408599854</v>
       </c>
       <c r="D21">
-        <v>1.0069818496704102</v>
+        <v>2.6213152408599854</v>
+      </c>
+      <c r="G21">
+        <v>30.9</v>
       </c>
       <c r="H21">
-        <v>30.9</v>
+        <v>2.62</v>
       </c>
       <c r="I21">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="J21">
-        <v>1.03</v>
-      </c>
-      <c r="K21">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.62</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18.361000000000001</v>
       </c>
       <c r="B22">
-        <v>1.1750506401062011</v>
+        <v>6.6831581115722658</v>
       </c>
       <c r="C22">
-        <v>1.2496641874313354</v>
+        <v>8.1461153030395508</v>
       </c>
       <c r="D22">
-        <v>1.0029393434524536</v>
+        <v>4.6409502029418901</v>
+      </c>
+      <c r="G22">
+        <v>18.36</v>
       </c>
       <c r="H22">
-        <v>18.36</v>
+        <v>6.68</v>
       </c>
       <c r="I22">
-        <v>1.17</v>
+        <v>8.14</v>
       </c>
       <c r="J22">
-        <v>1.25</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="M22">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.1008</v>
       </c>
       <c r="B24">
-        <v>1.0261780738830566</v>
+        <v>3.6470386981964111</v>
       </c>
       <c r="C24">
-        <v>1.0261780023574829</v>
+        <v>3.6470386981964111</v>
       </c>
       <c r="D24">
-        <v>1.0261780023574829</v>
+        <v>3.6470386981964111</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
       </c>
       <c r="H24">
-        <v>0.1</v>
+        <v>3.65</v>
       </c>
       <c r="I24">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="J24">
-        <v>1.02</v>
-      </c>
-      <c r="K24">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.65</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.31359999999999999</v>
       </c>
       <c r="B25">
-        <v>2.0987655639648439</v>
+        <v>3.5679012298583985</v>
       </c>
       <c r="C25">
-        <v>2.0987653732299805</v>
+        <v>3.5679008960723877</v>
       </c>
       <c r="D25">
-        <v>2.0987653732299805</v>
+        <v>3.5679008960723877</v>
+      </c>
+      <c r="G25">
+        <v>0.31</v>
       </c>
       <c r="H25">
-        <v>0.31</v>
+        <v>3.57</v>
       </c>
       <c r="I25">
-        <v>2.09</v>
+        <v>3.57</v>
       </c>
       <c r="J25">
-        <v>2.09</v>
-      </c>
-      <c r="K25">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.57</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8.7800000000000003E-2</v>
       </c>
       <c r="B26">
-        <v>1.4226274490356445</v>
+        <v>5.8019844055175778</v>
       </c>
       <c r="C26">
-        <v>1.6937011480331421</v>
+        <v>6.6587343215942383</v>
       </c>
       <c r="D26">
-        <v>1.3254685401916504</v>
+        <v>5.706789493560791</v>
+      </c>
+      <c r="G26">
+        <v>0.08</v>
       </c>
       <c r="H26">
-        <v>0.08</v>
+        <v>5.8</v>
       </c>
       <c r="I26">
-        <v>1.42</v>
+        <v>6.65</v>
       </c>
       <c r="J26">
-        <v>1.69</v>
-      </c>
-      <c r="K26">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.71</v>
+      </c>
+      <c r="M26">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.3165</v>
       </c>
       <c r="B27">
-        <v>1.3402777671813966</v>
+        <v>6.6681623458862305</v>
       </c>
       <c r="C27">
-        <v>1.3402777910232544</v>
+        <v>6.6681623458862305</v>
       </c>
       <c r="D27">
-        <v>1.3402777910232544</v>
+        <v>6.6681623458862305</v>
+      </c>
+      <c r="G27">
+        <v>0.31</v>
       </c>
       <c r="H27">
-        <v>0.31</v>
+        <v>6.67</v>
       </c>
       <c r="I27">
-        <v>1.34</v>
+        <v>6.67</v>
       </c>
       <c r="J27">
-        <v>1.34</v>
-      </c>
-      <c r="K27">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.67</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.79770000000000008</v>
       </c>
       <c r="B28">
-        <v>1.2080991744995118</v>
+        <v>3.5679012298583985</v>
       </c>
       <c r="C28">
-        <v>1.3351249694824219</v>
+        <v>3.5679008960723877</v>
       </c>
       <c r="D28">
-        <v>1.022160530090332</v>
+        <v>3.5679008960723877</v>
+      </c>
+      <c r="G28">
+        <v>0.79</v>
       </c>
       <c r="H28">
-        <v>0.79</v>
+        <v>3.57</v>
       </c>
       <c r="I28">
-        <v>1.2</v>
+        <v>3.57</v>
       </c>
       <c r="J28">
-        <v>1.33</v>
-      </c>
-      <c r="K28">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.57</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.29260000000000003</v>
       </c>
       <c r="B29">
-        <v>1.3689841270446776</v>
+        <v>6.9088439941406197</v>
       </c>
       <c r="C29">
-        <v>1.3689839839935303</v>
+        <v>7.8999990463255996</v>
       </c>
       <c r="D29">
-        <v>1.3689839839935303</v>
+        <v>6.3860564231872559</v>
+      </c>
+      <c r="G29">
+        <v>0.28999999999999998</v>
       </c>
       <c r="H29">
-        <v>0.28999999999999998</v>
+        <v>6.91</v>
       </c>
       <c r="I29">
-        <v>1.36</v>
+        <v>7.9</v>
       </c>
       <c r="J29">
-        <v>1.36</v>
-      </c>
-      <c r="K29">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.39</v>
+      </c>
+      <c r="M29">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.2717000000000001</v>
       </c>
       <c r="B30">
-        <v>1.4155207633972169</v>
+        <v>6.1860618591308594</v>
       </c>
       <c r="C30">
-        <v>1.5319991111755371</v>
+        <v>6.1860618591308594</v>
       </c>
       <c r="D30">
-        <v>1.32939612865448</v>
+        <v>6.1860618591308594</v>
+      </c>
+      <c r="G30">
+        <v>1.27</v>
       </c>
       <c r="H30">
-        <v>1.27</v>
+        <v>6.19</v>
       </c>
       <c r="I30">
-        <v>1.57</v>
+        <v>6.19</v>
       </c>
       <c r="J30">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="K30">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.19</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.0604</v>
       </c>
       <c r="B31">
-        <v>1.0781018257141113</v>
+        <v>2.7566722869873046</v>
       </c>
       <c r="C31">
-        <v>1.086621880531311</v>
+        <v>2.8107049465179443</v>
       </c>
       <c r="D31">
-        <v>1.0759644508361816</v>
+        <v>2.7431640625</v>
+      </c>
+      <c r="G31">
+        <v>2.06</v>
       </c>
       <c r="H31">
-        <v>2.06</v>
+        <v>2.75</v>
       </c>
       <c r="I31">
-        <v>1.07</v>
+        <v>2.81</v>
       </c>
       <c r="J31">
-        <v>1.08</v>
-      </c>
-      <c r="K31">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.74</v>
+      </c>
+      <c r="M31">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.1238000000000001</v>
       </c>
       <c r="B32">
-        <v>1.6956930160522461</v>
+        <v>6.7055374145507809</v>
       </c>
       <c r="C32">
-        <v>1.7428700923919678</v>
+        <v>6.8055558204650879</v>
       </c>
       <c r="D32">
-        <v>1.6762423515319824</v>
+        <v>6.6124558448791504</v>
+      </c>
+      <c r="G32">
+        <v>1.1200000000000001</v>
       </c>
       <c r="H32">
-        <v>1.1200000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="I32">
-        <v>1.69</v>
+        <v>6.8</v>
       </c>
       <c r="J32">
-        <v>1.74</v>
-      </c>
-      <c r="K32">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.61</v>
+      </c>
+      <c r="M32">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.3395000000000001</v>
       </c>
       <c r="B33">
-        <v>1.2949954986572265</v>
+        <v>4.1759994506835936</v>
       </c>
       <c r="C33">
-        <v>1.3000667095184326</v>
+        <v>5.1644821166992188</v>
       </c>
       <c r="D33">
-        <v>1.2493531703948975</v>
+        <v>3.4800710678100586</v>
+      </c>
+      <c r="G33">
+        <v>3.33</v>
       </c>
       <c r="H33">
-        <v>3.33</v>
+        <v>4.17</v>
       </c>
       <c r="I33">
-        <v>1.29</v>
+        <v>5.16</v>
       </c>
       <c r="J33">
-        <v>1.3</v>
-      </c>
-      <c r="K33">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.48</v>
+      </c>
+      <c r="M33">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.7544000000000002</v>
       </c>
       <c r="B34">
-        <v>1.3255323410034179</v>
+        <v>6.5189743041992001</v>
       </c>
       <c r="C34">
-        <v>1.3617020845413208</v>
+        <v>9.1865234375</v>
       </c>
       <c r="D34">
-        <v>1.0000044107437134</v>
+        <v>6.5250000953674299</v>
+      </c>
+      <c r="G34">
+        <v>1.75</v>
       </c>
       <c r="H34">
-        <v>1.75</v>
+        <v>7.05</v>
       </c>
       <c r="I34">
-        <v>1.32</v>
+        <v>9.18</v>
       </c>
       <c r="J34">
-        <v>1.36</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.52</v>
+      </c>
+      <c r="M34">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.3404000000000003</v>
       </c>
       <c r="B35">
-        <v>1.1538460731506348</v>
+        <v>6.5121223449706997</v>
       </c>
       <c r="C35">
-        <v>1.1538461446762085</v>
+        <v>6.73664951324462</v>
       </c>
       <c r="D35">
-        <v>1.1538461446762085</v>
+        <v>6.1632225513458199</v>
+      </c>
+      <c r="G35">
+        <v>2.34</v>
       </c>
       <c r="H35">
-        <v>2.34</v>
+        <v>6.51</v>
       </c>
       <c r="I35">
-        <v>1.1499999999999999</v>
+        <v>6.73</v>
       </c>
       <c r="J35">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K35">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.16</v>
+      </c>
+      <c r="M35">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7.1555</v>
       </c>
       <c r="B36">
-        <v>1.0423981666564941</v>
+        <v>3.8578094482421874</v>
       </c>
       <c r="C36">
-        <v>1.0845544338226318</v>
+        <v>4.5565829277038574</v>
       </c>
       <c r="D36">
-        <v>1.0117576122283936</v>
+        <v>3.6122500228881802</v>
+      </c>
+      <c r="G36">
+        <v>7.15</v>
       </c>
       <c r="H36">
-        <v>7.15</v>
+        <v>3.85</v>
       </c>
       <c r="I36">
-        <v>1.04</v>
+        <v>4.55</v>
       </c>
       <c r="J36">
-        <v>1.08</v>
-      </c>
-      <c r="K36">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.61</v>
+      </c>
+      <c r="M36">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5.2042000000000002</v>
       </c>
       <c r="B37">
-        <v>1.6694446563720704</v>
+        <v>6.2411384582519531</v>
       </c>
       <c r="C37">
-        <v>1.7414965629577637</v>
+        <v>7.9095420837402344</v>
       </c>
       <c r="D37">
-        <v>1.6614387035369873</v>
+        <v>5.24367940425872</v>
+      </c>
+      <c r="G37">
+        <v>5.2</v>
       </c>
       <c r="H37">
-        <v>5.2</v>
+        <v>6.24</v>
       </c>
       <c r="I37">
-        <v>1.66</v>
+        <v>7.9</v>
       </c>
       <c r="J37">
-        <v>1.74</v>
-      </c>
-      <c r="K37">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.24</v>
+      </c>
+      <c r="M37">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6.9450000000000003</v>
       </c>
       <c r="B38">
-        <v>1.0483245849609375</v>
+        <v>5.6778564453125</v>
       </c>
       <c r="C38">
-        <v>1.1164929866790771</v>
+        <v>6.75</v>
       </c>
       <c r="D38">
-        <v>1.0126339197158813</v>
+        <v>5.2033196449279702</v>
+      </c>
+      <c r="G38">
+        <v>6.94</v>
       </c>
       <c r="H38">
-        <v>6.94</v>
+        <v>5.67</v>
       </c>
       <c r="I38">
-        <v>1.04</v>
+        <v>6.75</v>
       </c>
       <c r="J38">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K38">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.2</v>
+      </c>
+      <c r="M38">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9.8544999999999998</v>
       </c>
       <c r="B39">
-        <v>1.3662657737731934</v>
+        <v>6.5285606384277344</v>
       </c>
       <c r="C39">
-        <v>1.4853241443634033</v>
+        <v>8.8121776580810494</v>
       </c>
       <c r="D39">
-        <v>1.000232458114624</v>
+        <v>6.0917687883377001</v>
+      </c>
+      <c r="G39">
+        <v>9.85</v>
       </c>
       <c r="H39">
-        <v>9.85</v>
+        <v>6.52</v>
       </c>
       <c r="I39">
-        <v>1.36</v>
+        <v>8.81</v>
       </c>
       <c r="J39">
-        <v>1.48</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.09</v>
+      </c>
+      <c r="M39">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16.947700000000001</v>
       </c>
       <c r="B40">
-        <v>1.0356402397155762</v>
+        <v>3.6718699741363499</v>
       </c>
       <c r="C40">
-        <v>1.0875809192657471</v>
+        <v>3.6718699741363499</v>
       </c>
       <c r="D40">
-        <v>1.0010132789611816</v>
+        <v>3.6718699741363499</v>
+      </c>
+      <c r="G40">
+        <v>16.940000000000001</v>
       </c>
       <c r="H40">
-        <v>16.940000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="I40">
-        <v>1.03</v>
+        <v>3.67</v>
       </c>
       <c r="J40">
-        <v>1.08</v>
-      </c>
-      <c r="K40">
+        <v>3.67</v>
+      </c>
+      <c r="M40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13.825800000000001</v>
       </c>
       <c r="B41">
-        <v>1.284142017364502</v>
+        <v>6.4240615844726561</v>
       </c>
       <c r="C41">
-        <v>1.36588454246521</v>
+        <v>6.6371736526489258</v>
       </c>
       <c r="D41">
-        <v>1.0137921571731567</v>
+        <v>5.9531207084655762</v>
+      </c>
+      <c r="G41">
+        <v>13.82</v>
       </c>
       <c r="H41">
-        <v>13.82</v>
+        <v>6.42</v>
       </c>
       <c r="I41">
-        <v>1.28</v>
+        <v>6.63</v>
       </c>
       <c r="J41">
-        <v>1.36</v>
-      </c>
-      <c r="K41">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.59</v>
+      </c>
+      <c r="M41">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>21.661899999999999</v>
       </c>
       <c r="B42">
-        <v>1.2617693901062013</v>
+        <v>4.0999710083007797</v>
       </c>
       <c r="C42">
-        <v>1.3033730983734131</v>
+        <v>4.1919956207275302</v>
       </c>
       <c r="D42">
-        <v>1.0852084159851074</v>
+        <v>3.8337305641174302</v>
+      </c>
+      <c r="G42">
+        <v>21.66</v>
       </c>
       <c r="H42">
-        <v>21.66</v>
+        <v>4.09</v>
       </c>
       <c r="I42">
-        <v>1.26</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J42">
-        <v>1.3</v>
-      </c>
-      <c r="K42">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.83</v>
+      </c>
+      <c r="M42">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>23.421100000000003</v>
       </c>
       <c r="B43">
-        <v>1.022422695159912</v>
+        <v>4.3616312408447202</v>
       </c>
       <c r="C43">
-        <v>1.0754457712173462</v>
+        <v>4.5820265769958404</v>
       </c>
       <c r="D43">
-        <v>1.0085775852203369</v>
+        <v>4.0855526924133301</v>
+      </c>
+      <c r="G43">
+        <v>23.42</v>
       </c>
       <c r="H43">
-        <v>23.42</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="I43">
-        <v>1.02</v>
+        <v>4.58</v>
       </c>
       <c r="J43">
-        <v>1.07</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.08</v>
+      </c>
+      <c r="M43">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>23.154800000000002</v>
       </c>
       <c r="B44">
-        <v>1.2107986450195312</v>
+        <v>4.1142704010009767</v>
       </c>
       <c r="C44">
-        <v>1.2825698852539063</v>
+        <v>4.4349174499511719</v>
       </c>
       <c r="D44">
-        <v>1.1950770616531372</v>
+        <v>3.3140732479095401</v>
+      </c>
+      <c r="G44">
+        <v>23.15</v>
       </c>
       <c r="H44">
-        <v>23.15</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="I44">
-        <v>1.21</v>
+        <v>4.43</v>
       </c>
       <c r="J44">
-        <v>1.28</v>
-      </c>
-      <c r="K44">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.31</v>
+      </c>
+      <c r="M44">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.1082</v>
       </c>
       <c r="B46">
-        <v>1.3313609123229981</v>
+        <v>2.5420593261718749</v>
       </c>
       <c r="C46">
-        <v>1.331360936164856</v>
+        <v>2.5571231842041016</v>
       </c>
       <c r="D46">
-        <v>1.331360936164856</v>
+        <v>2.5106337070465088</v>
+      </c>
+      <c r="G46">
+        <v>0.1</v>
       </c>
       <c r="H46">
-        <v>0.1</v>
+        <v>2.54</v>
       </c>
       <c r="I46">
-        <v>1.33</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J46">
-        <v>1.33</v>
-      </c>
-      <c r="K46">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M46">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="B47">
-        <v>1.2986109733581543</v>
+        <v>4.7597034454345701</v>
       </c>
       <c r="C47">
-        <v>1.298611044883728</v>
+        <v>4.7828011512756348</v>
       </c>
       <c r="D47">
-        <v>1.298611044883728</v>
+        <v>4.7478265762329102</v>
+      </c>
+      <c r="G47">
+        <v>0.09</v>
       </c>
       <c r="H47">
-        <v>0.09</v>
+        <v>4.75</v>
       </c>
       <c r="I47">
-        <v>1.29</v>
+        <v>4.78</v>
       </c>
       <c r="J47">
-        <v>1.29</v>
-      </c>
-      <c r="K47">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.75</v>
+      </c>
+      <c r="M47">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9.2300000000000007E-2</v>
       </c>
       <c r="B48">
-        <v>1.1360947608947753</v>
+        <v>2.7258068084716798</v>
       </c>
       <c r="C48">
-        <v>1.1360946893692017</v>
+        <v>2.7258064746856689</v>
       </c>
       <c r="D48">
-        <v>1.1360946893692017</v>
+        <v>2.7258064746856689</v>
+      </c>
+      <c r="G48">
+        <v>0.09</v>
       </c>
       <c r="H48">
-        <v>0.09</v>
+        <v>2.73</v>
       </c>
       <c r="I48">
-        <v>1.1299999999999999</v>
+        <v>2.73</v>
       </c>
       <c r="J48">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="K48">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.73</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.78890000000000005</v>
       </c>
       <c r="B49">
-        <v>1.0591715812683105</v>
+        <v>2.221206855773926</v>
       </c>
       <c r="C49">
-        <v>1.0591715574264526</v>
+        <v>2.2212071418762207</v>
       </c>
       <c r="D49">
-        <v>1.0591715574264526</v>
+        <v>2.2212071418762207</v>
+      </c>
+      <c r="G49">
+        <v>0.78</v>
       </c>
       <c r="H49">
-        <v>0.78</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I49">
-        <v>1.05</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J49">
-        <v>1.05</v>
-      </c>
-      <c r="K49">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.49620000000000003</v>
       </c>
       <c r="B50">
-        <v>1.2849415779113769</v>
+        <v>2.5932710933685299</v>
       </c>
       <c r="C50">
-        <v>1.3318905830383301</v>
+        <v>2.5932710933685299</v>
       </c>
       <c r="D50">
-        <v>1.2654848098754883</v>
+        <v>2.5932710933685299</v>
+      </c>
+      <c r="G50">
+        <v>0.49</v>
       </c>
       <c r="H50">
-        <v>0.49</v>
+        <v>2.59</v>
       </c>
       <c r="I50">
-        <v>1.28</v>
+        <v>2.59</v>
       </c>
       <c r="J50">
-        <v>1.33</v>
-      </c>
-      <c r="K50">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.59</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.0312000000000001</v>
       </c>
       <c r="B51">
-        <v>1.1401144027709962</v>
+        <v>5.7600006103515629</v>
       </c>
       <c r="C51">
-        <v>1.6741974353790283</v>
+        <v>5.7600002288818359</v>
       </c>
       <c r="D51">
-        <v>1.0748488903045654</v>
+        <v>5.7600002288818297</v>
+      </c>
+      <c r="G51">
+        <v>1.03</v>
       </c>
       <c r="H51">
-        <v>1.03</v>
+        <v>5.76</v>
       </c>
       <c r="I51">
-        <v>1.1399999999999999</v>
+        <v>5.76</v>
       </c>
       <c r="J51">
-        <v>1.67</v>
-      </c>
-      <c r="K51">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.76</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.3376000000000001</v>
       </c>
       <c r="B52">
-        <v>1.0591785430908203</v>
+        <v>8.6410675048828125</v>
       </c>
       <c r="C52">
-        <v>1.0759053230285645</v>
+        <v>8.6698970794677734</v>
       </c>
       <c r="D52">
-        <v>1.0329669713973999</v>
+        <v>8.6378650665283203</v>
+      </c>
+      <c r="G52">
+        <v>1.33</v>
       </c>
       <c r="H52">
-        <v>1.33</v>
+        <v>8.64</v>
       </c>
       <c r="I52">
-        <v>1.05</v>
+        <v>8.66</v>
       </c>
       <c r="J52">
-        <v>1.07</v>
-      </c>
-      <c r="K52">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.8611</v>
       </c>
       <c r="B53">
-        <v>1.0535312652587892</v>
+        <v>1.594810390472412</v>
       </c>
       <c r="C53">
-        <v>1.1033732891082764</v>
+        <v>1.5948102474212646</v>
       </c>
       <c r="D53">
-        <v>1.0312337875366211</v>
+        <v>1.5948102474212646</v>
+      </c>
+      <c r="G53">
+        <v>2.86</v>
       </c>
       <c r="H53">
-        <v>2.86</v>
+        <v>1.59</v>
       </c>
       <c r="I53">
-        <v>1.05</v>
+        <v>1.59</v>
       </c>
       <c r="J53">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K53">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.59</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.99099999999999999</v>
       </c>
       <c r="B54">
-        <v>1.0888890266418456</v>
+        <v>6.1693729400634769</v>
       </c>
       <c r="C54">
-        <v>1.0888888835906982</v>
+        <v>7.3311781883239746</v>
       </c>
       <c r="D54">
-        <v>1.0888888835906982</v>
+        <v>4.127540111541748</v>
+      </c>
+      <c r="G54">
+        <v>0.99</v>
       </c>
       <c r="H54">
-        <v>0.99</v>
+        <v>4.16</v>
       </c>
       <c r="I54">
-        <v>1.08</v>
+        <v>4.33</v>
       </c>
       <c r="J54">
-        <v>1.08</v>
-      </c>
-      <c r="K54">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.86</v>
+      </c>
+      <c r="M54">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3.0902000000000003</v>
       </c>
       <c r="B55">
-        <v>1.0318947792053224</v>
+        <v>2.7621839523315428</v>
       </c>
       <c r="C55">
-        <v>1.0318948030471802</v>
+        <v>3.5186007022857666</v>
       </c>
       <c r="D55">
-        <v>1.0318948030471802</v>
+        <v>2.3313815593719482</v>
+      </c>
+      <c r="G55">
+        <v>3.09</v>
       </c>
       <c r="H55">
-        <v>3.09</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I55">
-        <v>1.03</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J55">
-        <v>1.03</v>
-      </c>
-      <c r="K55">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.7579000000000002</v>
       </c>
       <c r="B56">
-        <v>1.3863092422485352</v>
+        <v>4.4917133331298826</v>
       </c>
       <c r="C56">
-        <v>1.7629566192626953</v>
+        <v>4.6610536575317383</v>
       </c>
       <c r="D56">
-        <v>1.1451113224029541</v>
+        <v>4.3302359580993652</v>
+      </c>
+      <c r="G56">
+        <v>5.75</v>
       </c>
       <c r="H56">
-        <v>5.75</v>
+        <v>4.49</v>
       </c>
       <c r="I56">
-        <v>1.38</v>
+        <v>4.66</v>
       </c>
       <c r="J56">
-        <v>1.76</v>
-      </c>
-      <c r="K56">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.33</v>
+      </c>
+      <c r="M56">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4.0381</v>
       </c>
       <c r="B57">
-        <v>1.3400110244750976</v>
+        <v>2.6482195854187012</v>
       </c>
       <c r="C57">
-        <v>1.5280039310455322</v>
+        <v>2.6482195854187012</v>
       </c>
       <c r="D57">
-        <v>1.2610082626342773</v>
+        <v>2.6482195854187012</v>
+      </c>
+      <c r="G57">
+        <v>4.03</v>
       </c>
       <c r="H57">
-        <v>4.03</v>
+        <v>2.65</v>
       </c>
       <c r="I57">
-        <v>1.34</v>
+        <v>2.65</v>
       </c>
       <c r="J57">
-        <v>1.52</v>
-      </c>
-      <c r="K57">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.65</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>11.707600000000001</v>
       </c>
       <c r="B58">
-        <v>1.2452682495117187</v>
+        <v>2.3797414779663084</v>
       </c>
       <c r="C58">
-        <v>1.3770875930786133</v>
+        <v>2.4900097846984863</v>
       </c>
       <c r="D58">
-        <v>1.0338629484176636</v>
+        <v>2.3000833988189697</v>
+      </c>
+      <c r="G58">
+        <v>11.7</v>
       </c>
       <c r="H58">
-        <v>11.7</v>
+        <v>2.37</v>
       </c>
       <c r="I58">
-        <v>1.24</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J58">
-        <v>1.37</v>
-      </c>
-      <c r="K58">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M58">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7.6472000000000007</v>
       </c>
       <c r="B59">
-        <v>1.1797863960266113</v>
+        <v>5.1739967346191404</v>
       </c>
       <c r="C59">
-        <v>1.248560905456543</v>
+        <v>5.5988531112670898</v>
       </c>
       <c r="D59">
-        <v>1.1132023334503174</v>
+        <v>5.0029651641845696</v>
+      </c>
+      <c r="G59">
+        <v>7.64</v>
       </c>
       <c r="H59">
-        <v>7.64</v>
+        <v>5.17</v>
       </c>
       <c r="I59">
-        <v>1.17</v>
+        <v>5.59</v>
       </c>
       <c r="J59">
-        <v>1.24</v>
-      </c>
-      <c r="K59">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6.9291</v>
       </c>
       <c r="B60">
-        <v>1.2222764968872071</v>
+        <v>9.7223625183105469</v>
       </c>
       <c r="C60">
-        <v>1.2651606798171997</v>
+        <v>10.253787994384766</v>
       </c>
       <c r="D60">
-        <v>1.2152489423751831</v>
+        <v>9.0594167709350586</v>
+      </c>
+      <c r="G60">
+        <v>6.92</v>
       </c>
       <c r="H60">
-        <v>6.92</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="I60">
-        <v>1.22</v>
+        <v>10.25</v>
       </c>
       <c r="J60">
-        <v>1.26</v>
-      </c>
-      <c r="K60">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="M60">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>25.313800000000001</v>
       </c>
       <c r="B61">
-        <v>1.1156645774841309</v>
+        <v>5.0018909454345701</v>
       </c>
       <c r="C61">
-        <v>1.1156646013259888</v>
+        <v>5.0018906593322754</v>
       </c>
       <c r="D61">
-        <v>1.1156646013259888</v>
+        <v>5.0018906593322754</v>
+      </c>
+      <c r="G61">
+        <v>25.31</v>
       </c>
       <c r="H61">
-        <v>25.31</v>
+        <v>5</v>
       </c>
       <c r="I61">
-        <v>1.1100000000000001</v>
+        <v>5</v>
       </c>
       <c r="J61">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K61">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20.02</v>
       </c>
       <c r="B62">
-        <v>1.2784199714660645</v>
+        <v>4.0807525634765627</v>
       </c>
       <c r="C62">
-        <v>1.3401621580123901</v>
+        <v>4.2416901588439941</v>
       </c>
       <c r="D62">
-        <v>1.2663533687591553</v>
+        <v>3.9209043693542398</v>
+      </c>
+      <c r="G62">
+        <v>20.02</v>
       </c>
       <c r="H62">
-        <v>20.02</v>
+        <v>4.08</v>
       </c>
       <c r="I62">
-        <v>1.27</v>
+        <v>4.24</v>
       </c>
       <c r="J62">
-        <v>1.34</v>
-      </c>
-      <c r="K62">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.92</v>
+      </c>
+      <c r="M62">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>11.6995</v>
       </c>
       <c r="B63">
-        <v>1.4826771736145019</v>
+        <v>8.7328414916992188</v>
       </c>
       <c r="C63">
-        <v>1.7607189416885376</v>
+        <v>10.540238380432129</v>
       </c>
       <c r="D63">
-        <v>1.0000925064086914</v>
+        <v>8.3538271188735909</v>
+      </c>
+      <c r="G63">
+        <v>11.69</v>
       </c>
       <c r="H63">
-        <v>11.69</v>
+        <v>8.73</v>
       </c>
       <c r="I63">
-        <v>1.48</v>
+        <v>10.54</v>
       </c>
       <c r="J63">
-        <v>1.76</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.35</v>
+      </c>
+      <c r="M63">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>26.983900000000002</v>
       </c>
       <c r="B64">
-        <v>1.3040154457092286</v>
+        <v>4.0446857452392582</v>
       </c>
       <c r="C64">
-        <v>1.4965811967849731</v>
+        <v>4.8962769508361816</v>
       </c>
       <c r="D64">
-        <v>1.2425953149795532</v>
+        <v>3.7866809368133545</v>
+      </c>
+      <c r="G64">
+        <v>26.98</v>
       </c>
       <c r="H64">
-        <v>26.98</v>
+        <v>4.04</v>
       </c>
       <c r="I64">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J64">
+        <v>3.76</v>
+      </c>
+      <c r="M64">
         <v>1.3</v>
       </c>
-      <c r="J64">
-        <v>1.49</v>
-      </c>
-      <c r="K64">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>25.735400000000002</v>
       </c>
       <c r="B65">
-        <v>1.0451622009277344</v>
+        <v>3.5558006286621096</v>
       </c>
       <c r="C65">
-        <v>1.1651293039321899</v>
+        <v>3.902662992477417</v>
       </c>
       <c r="D65">
-        <v>1.0063990354537964</v>
+        <v>2.8396710205078102</v>
+      </c>
+      <c r="G65">
+        <v>25.73</v>
       </c>
       <c r="H65">
-        <v>25.73</v>
+        <v>3.55</v>
       </c>
       <c r="I65">
-        <v>1.04</v>
+        <v>3.9</v>
       </c>
       <c r="J65">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.83</v>
+      </c>
+      <c r="M65">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>17.300800000000002</v>
       </c>
       <c r="B66">
-        <v>1.201054573059082</v>
+        <v>9.6064994812011726</v>
       </c>
       <c r="C66">
-        <v>1.2762115001678467</v>
+        <v>11.198184013366699</v>
       </c>
       <c r="D66">
-        <v>1.1696983575820923</v>
+        <v>9.1833326816558802</v>
+      </c>
+      <c r="G66">
+        <v>17.3</v>
       </c>
       <c r="H66">
-        <v>17.3</v>
+        <v>9.6</v>
       </c>
       <c r="I66">
-        <v>1.2</v>
+        <v>11.19</v>
       </c>
       <c r="J66">
-        <v>1.27</v>
-      </c>
-      <c r="K66">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0.2575</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1.1180554389953614</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0.5776</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.21875</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1.1180554389953614</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>18.4765</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2.4823328018188477</v>
-      </c>
-      <c r="C70" t="n">
-        <v>13.821394920349121</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.215248942375183</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0.27140000000000003</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1.1180554389953614</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0.7443000000000001</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2.21875</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.2723</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>15.196100000000001</v>
-      </c>
-      <c r="B74" t="n">
-        <v>6.5095970153808596</v>
-      </c>
-      <c r="C74" t="n">
-        <v>54.16305923461914</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.1832810640335083</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0.2399</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.1180554389953614</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0.6044</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2.21875</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0.2892</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.8875</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.21875</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0.2907</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.8875</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2.21875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2.21875</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>20.868000000000002</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.45041303634643554</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.2496641874313354</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.0024011135101318</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.4472222328186035</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>6.047000000000001</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.48306708335876464</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.2168917655944824</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.1832810640335083</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0.1285</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.4472222328186035</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>0.1114</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.4472222328186035</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0.1169</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.4472222328186035</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2.9684</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.4000681400299072</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.000170350074768</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.000170350074768</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.1259</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.4472222328186035</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.1180555820465088</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0.1233</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.9877551078796387</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2.4693877696990967</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.4693877696990967</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.1381</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.9877551078796387</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.4693877696990967</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2.4693877696990967</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1.5296</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.622708511352539</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.5567712783813477</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.5567712783813477</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1.5617</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1.026489543914795</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2.5662238597869873</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2.5662238597869873</v>
+        <v>9.18</v>
+      </c>
+      <c r="M66">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
